--- a/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.41035713330286</v>
+        <v>-16.29188515854445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.21730024752188</v>
+        <v>-22.25375422401476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.26977091859124</v>
+        <v>-24.69867552882997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-52.80331975959452</v>
+        <v>-54.33452656355134</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-42.00284417164966</v>
+        <v>-44.79351384056937</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-44.14921388778327</v>
+        <v>-42.27408823649839</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-24.68318328716487</v>
+        <v>-24.28448681737913</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-26.37953733569437</v>
+        <v>-25.43548430760147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-24.45930340540667</v>
+        <v>-24.20017426190335</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.29843345282218</v>
+        <v>19.63835420130242</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.640683420944304</v>
+        <v>3.541750637119034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.474352668773453</v>
+        <v>0.9438305281958014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.653662258727297</v>
+        <v>-9.218906609247867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.194796729826676</v>
+        <v>4.166157042151948</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.870614571917829</v>
+        <v>-3.093509623325856</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.624769833198396</v>
+        <v>3.361441833627381</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3769427687176461</v>
+        <v>0.8765377684532566</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.770760674354237</v>
+        <v>-3.299243580956698</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6520769649738641</v>
+        <v>-0.6542209578593362</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8039015000731112</v>
+        <v>-0.8169989364301921</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7381442441743702</v>
+        <v>-0.7430143467805148</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9192848838562913</v>
+        <v>-0.9399828483408962</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7767646776852508</v>
+        <v>-0.7792954797062603</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7176254956281816</v>
+        <v>-0.7041643652737755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7264826086737561</v>
+        <v>-0.7438123797949724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7133819377291973</v>
+        <v>-0.7197350475538262</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6642734936743279</v>
+        <v>-0.6493555311840015</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.373441124729571</v>
+        <v>1.859813329068883</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5688481044544382</v>
+        <v>0.4645894920450634</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2045546016827466</v>
+        <v>0.1702800034338878</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03157038389670153</v>
+        <v>-0.1126918889593422</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1671599041964493</v>
+        <v>0.205458303700726</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.147996305503676</v>
+        <v>-0.08733208338453245</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.139391159352889</v>
+        <v>0.2217715940242845</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02352256960386638</v>
+        <v>0.06620688949513724</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1438337144298129</v>
+        <v>-0.156220306174929</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.022789860530116</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.105090538948152</v>
+        <v>-4.105090538948142</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-23.32882173639734</v>
+        <v>-22.55304039926781</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.67074167813967</v>
+        <v>-18.70227521293476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.24874401674498</v>
+        <v>-21.53157519540366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.27156429372677</v>
+        <v>-24.14316396147682</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-25.17540397894691</v>
+        <v>-25.60037070455282</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-34.84273826703665</v>
+        <v>-34.11806090498556</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-15.85988163876909</v>
+        <v>-16.8781900979851</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-14.3836146447063</v>
+        <v>-14.99086403437131</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.10004116685441</v>
+        <v>-16.2199647031288</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.773482557305938</v>
+        <v>9.821279004903213</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.87966041875315</v>
+        <v>13.89096306409202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.511755021006032</v>
+        <v>7.033766825937196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48.54756683942306</v>
+        <v>46.25036852658411</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>49.42087114242374</v>
+        <v>48.83999691114439</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.87804103402437</v>
+        <v>20.30740010594506</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.54845204027168</v>
+        <v>12.99988764321887</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.67601162902489</v>
+        <v>16.09496718874881</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.875696816295264</v>
+        <v>7.128534070204845</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.04011242663958485</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1609960652201471</v>
+        <v>-0.1609960652201466</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7654140616793245</v>
+        <v>-0.7297657884690764</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6304296773094931</v>
+        <v>-0.6005114100198002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6277550777544062</v>
+        <v>-0.6193448097527433</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4350374741688945</v>
+        <v>-0.4904602021598054</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5240289047547387</v>
+        <v>-0.5316274439288706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5997390811731469</v>
+        <v>-0.5691508992542774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5011510625727413</v>
+        <v>-0.5168739292766329</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4422070428222858</v>
+        <v>-0.4373857559491809</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4704562720163152</v>
+        <v>-0.4733758899394112</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5870262709516261</v>
+        <v>0.802995005794774</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8857962152989984</v>
+        <v>1.074939369155669</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5289747747936908</v>
+        <v>0.6626555224233329</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.381098619524276</v>
+        <v>3.188010859415124</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.100288876361027</v>
+        <v>3.446176278114681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.350177996162369</v>
+        <v>1.56652653562387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7888434848278612</v>
+        <v>0.7313585618070094</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9525545472685789</v>
+        <v>0.9088908919570781</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4432006392586209</v>
+        <v>0.4528989405170007</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-12.58582423794484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-7.431091851919816</v>
+        <v>-7.431091851919819</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5170463218254484</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.93498592001616</v>
+        <v>-18.27971018494774</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-24.66450058241535</v>
+        <v>-24.34259597938712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.24198689271242</v>
+        <v>-19.1642091351638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-24.04320564044329</v>
+        <v>-24.04950266501871</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-24.20594621464483</v>
+        <v>-25.12569350336225</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.01780757601579</v>
+        <v>-14.38153443809487</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-13.19440585941555</v>
+        <v>-14.53629270139301</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-19.53494820009981</v>
+        <v>-19.88126425956808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.65252663884071</v>
+        <v>-11.80501917634015</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.612106733043074</v>
+        <v>8.864189820033729</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.5842379181992</v>
+        <v>-1.777333300518419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.79803895291663</v>
+        <v>4.0468684683762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.50308956776728</v>
+        <v>20.86628334436926</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.08576355143504</v>
+        <v>24.78108940150163</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.26386127273214</v>
+        <v>29.56169810047918</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.998912022748549</v>
+        <v>8.467333344727711</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.404857716471075</v>
+        <v>2.18332369131233</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.933233287646209</v>
+        <v>9.296668656839325</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.47869801780268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2826393307558641</v>
+        <v>-0.2826393307558642</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.01508551547023533</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5147234065124183</v>
+        <v>-0.5270363802044353</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7182737881323066</v>
+        <v>-0.7115602101663085</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5731337844251279</v>
+        <v>-0.5717665259224212</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4782902260859339</v>
+        <v>-0.4984652749367487</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5161482712673257</v>
+        <v>-0.5392739193457217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2575003851797665</v>
+        <v>-0.2827602875666655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3819200559440946</v>
+        <v>-0.4246646906239303</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5519514172544585</v>
+        <v>-0.5433473517065214</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3541769644527082</v>
+        <v>-0.3246270913715112</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3961940551256374</v>
+        <v>0.4468098921411561</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07693387741243225</v>
+        <v>-0.07275607689185147</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.16873360826031</v>
+        <v>0.2205955465930832</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.280569358349792</v>
+        <v>1.150375831452567</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.308619952581546</v>
+        <v>1.263884703390754</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.644570832639073</v>
+        <v>1.761498774991039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4284965720622168</v>
+        <v>0.3724107712214773</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1257537684574076</v>
+        <v>0.1472689843190821</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4140594792906833</v>
+        <v>0.4679618649237478</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.310340784025185</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.968033897122137</v>
+        <v>4.968033897122143</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>11.24687601014354</v>
@@ -1297,7 +1297,7 @@
         <v>6.101520958261131</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.444003596360745</v>
+        <v>3.44400359636074</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.043325780219326</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.64134821046045</v>
+        <v>-6.663793557482007</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.17305240087846</v>
+        <v>-14.77821894427936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.297214868762708</v>
+        <v>-2.352861558705836</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.38436414595259</v>
+        <v>-3.88583394596299</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.823334748385292</v>
+        <v>-8.185689598952809</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.71203617076689</v>
+        <v>-8.221538329109865</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.853112455966229</v>
+        <v>-3.53575069895421</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.396683295417592</v>
+        <v>-9.904923607751485</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.383377874913896</v>
+        <v>-1.433102493059318</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.11231631514406</v>
+        <v>10.1546444361721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2382899893117366</v>
+        <v>-0.3705774515345103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.87572043894525</v>
+        <v>12.06848787464715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.93856684782528</v>
+        <v>27.58074870239786</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>20.84170089232251</v>
+        <v>21.31704520906129</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.54297294338812</v>
+        <v>13.86419325235437</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.12410611001482</v>
+        <v>11.52180958651715</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.537649422560288</v>
+        <v>3.532441973101372</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.86097261140214</v>
+        <v>10.35825318244336</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2629167970896161</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1786756046884032</v>
+        <v>0.1786756046884034</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3956078197854855</v>
@@ -1402,7 +1402,7 @@
         <v>0.2146204333982274</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.121142506849087</v>
+        <v>0.1211425068490868</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1446129176161547</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1847446675687893</v>
+        <v>-0.2174212885832721</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4915554046781759</v>
+        <v>-0.4819833412988117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07451448071380533</v>
+        <v>-0.07763599518788597</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1349830698885529</v>
+        <v>-0.1260237953772202</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.218226024202641</v>
+        <v>-0.2404534843740168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2361024134900169</v>
+        <v>-0.2204915555980788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.09381472376980431</v>
+        <v>-0.1200393125004116</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3053628610105823</v>
+        <v>-0.3180042850295292</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04431743570720406</v>
+        <v>-0.04090256581650566</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4374837818505288</v>
+        <v>0.4188180369711605</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01317047060633641</v>
+        <v>-0.01049788725088137</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4961973964075641</v>
+        <v>0.5049153864460721</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.266457555882349</v>
+        <v>1.297407945877072</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.010807654193926</v>
+        <v>1.07252180112474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7048001581668364</v>
+        <v>0.7143198511899204</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4499566622130464</v>
+        <v>0.4522563627346503</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1812911327484102</v>
+        <v>0.1396704271942204</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4481789225711185</v>
+        <v>0.4314131236909512</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-3.315798471669973</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>10.78108557617078</v>
+        <v>10.78108557617077</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.275801836940792</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.02486620852334</v>
+        <v>-11.29358892678061</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.4290713606797</v>
+        <v>-10.54605907864518</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.86666147160481</v>
+        <v>-10.5010331237608</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.277463364772609</v>
+        <v>-6.271944016652887</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.81284185694103</v>
+        <v>-16.54251207626524</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2646985874379957</v>
+        <v>-0.3111189952005151</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.611278376998191</v>
+        <v>-3.485211871536688</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.03612621746177</v>
+        <v>-11.56572734541334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3956247887260165</v>
+        <v>-0.1160020914272261</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.97740694379727</v>
+        <v>19.91181454172938</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.86722663128238</v>
+        <v>16.4738954317984</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.88474274029068</v>
+        <v>17.31693989203377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.84268206770136</v>
+        <v>18.7419944116654</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.578193612760883</v>
+        <v>8.89934313247821</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>23.03167432586578</v>
+        <v>22.33718213039638</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.53855887579639</v>
+        <v>16.70695109119506</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.073093647210552</v>
+        <v>8.180097628599768</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.14024939327555</v>
+        <v>17.7046386370677</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.08764340129325958</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2849663565510428</v>
+        <v>0.2849663565510426</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1785421372595988</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.292779461234897</v>
+        <v>-0.2874133016713755</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3034409977197619</v>
+        <v>-0.2687562690918963</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2875609498634463</v>
+        <v>-0.2653311122413559</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1161132294734689</v>
+        <v>-0.13777407154136</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3586709091369358</v>
+        <v>-0.3716285164381194</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01153959170151158</v>
+        <v>-0.006530409431942334</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.09580044219704077</v>
+        <v>-0.08071314664348252</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2571297509872669</v>
+        <v>-0.2822386728419513</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.002378445266589143</v>
+        <v>-0.006192012430900392</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8967609536099878</v>
+        <v>0.9289009919542539</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7478175239221215</v>
+        <v>0.7953993120339795</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8035017112208416</v>
+        <v>0.8142832677740164</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7424934202139714</v>
+        <v>0.6177669391251382</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3215427017096602</v>
+        <v>0.2941743799937677</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8265578623069737</v>
+        <v>0.8020119261313048</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5669110468409982</v>
+        <v>0.5911677192461285</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2743989461348011</v>
+        <v>0.2816524541153649</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5941644791712377</v>
+        <v>0.6204447535165706</v>
       </c>
     </row>
     <row r="34">
@@ -1732,7 +1732,7 @@
         <v>2.601420256037229</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>12.24192054363135</v>
+        <v>12.24192054363134</v>
       </c>
     </row>
     <row r="35">
@@ -1743,29 +1743,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-75.71116958691454</v>
+        <v>-96.53392676514149</v>
       </c>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-18.59626209800971</v>
+        <v>-29.46048651097306</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.897512818458608</v>
+        <v>-3.361116481800437</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.51919475287095</v>
+        <v>-5.733483868512366</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.551505603539629</v>
+        <v>5.800599405255534</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.892925848133354</v>
+        <v>-3.642151473152527</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.2382897666277</v>
+        <v>-4.292971331734417</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>6.460526989628623</v>
+        <v>6.068285502118409</v>
       </c>
     </row>
     <row r="36">
@@ -1780,25 +1780,25 @@
       </c>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>84.92908025682941</v>
+        <v>84.88746205622347</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.424859338381287</v>
+        <v>9.346263533297162</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.123369283600386</v>
+        <v>9.548658280067764</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>18.3869071083718</v>
+        <v>18.15352297038302</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.398713651667599</v>
+        <v>9.544907145640018</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.967409167772063</v>
+        <v>9.486020090007484</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.25075484194259</v>
+        <v>18.70877026307914</v>
       </c>
     </row>
     <row r="37">
@@ -1831,7 +1831,7 @@
         <v>0.07647916941794548</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3599002941122675</v>
+        <v>0.3599002941122673</v>
       </c>
     </row>
     <row r="38">
@@ -1845,22 +1845,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1029418326244879</v>
+        <v>-0.09438427357444594</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1179259850684311</v>
+        <v>-0.1456803947151158</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.15002019919062</v>
+        <v>0.1521649826659886</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1092852632957626</v>
+        <v>-0.09752910076574105</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1179263341747404</v>
+        <v>-0.1193955288971832</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1687611901400299</v>
+        <v>0.1638237860059306</v>
       </c>
     </row>
     <row r="39">
@@ -1874,22 +1874,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.3021748209236206</v>
+        <v>0.3043005369612911</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.299113288017563</v>
+        <v>0.3107131883893932</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6053642222499567</v>
+        <v>0.6062634371740477</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2927278455091146</v>
+        <v>0.3057309601808635</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2916302076693267</v>
+        <v>0.3058546961238789</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5923589245514025</v>
+        <v>0.6162578349781377</v>
       </c>
     </row>
     <row r="40">
@@ -1910,7 +1910,7 @@
         <v>-5.332158804304396</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.541095908581644</v>
+        <v>-1.541095908581638</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.110073357074517</v>
@@ -1928,7 +1928,7 @@
         <v>-1.737250381619004</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.033775449763865</v>
+        <v>3.033775449763859</v>
       </c>
     </row>
     <row r="41">
@@ -1939,31 +1939,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.392238420589251</v>
+        <v>-4.98646944053915</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.45280638511414</v>
+        <v>-9.883735031356931</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.370722858340618</v>
+        <v>-5.91449161957872</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.072235908421986</v>
+        <v>-1.366882974093843</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.986540321400275</v>
+        <v>-4.470834951706694</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.570898730213932</v>
+        <v>2.429236789726223</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.505625492272001</v>
+        <v>-1.268679511792815</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-5.464192132866969</v>
+        <v>-4.956289484973659</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.3735977311279253</v>
+        <v>-0.3492504754381482</v>
       </c>
     </row>
     <row r="42">
@@ -1974,31 +1974,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.73341631984624</v>
+        <v>5.931773084353096</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.3990354241703236</v>
+        <v>-0.6587881424893965</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.110973806341449</v>
+        <v>2.959244867676223</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.20304115532849</v>
+        <v>9.168045403221912</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.111885552795408</v>
+        <v>6.453950249444428</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>11.11339828290686</v>
+        <v>11.08620625260375</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.035705473024209</v>
+        <v>6.57631212458608</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.955863072488415</v>
+        <v>2.288923101795821</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.139021145846326</v>
+        <v>6.2668472207648</v>
       </c>
     </row>
     <row r="43">
@@ -2015,7 +2015,7 @@
         <v>-0.2022825118886272</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.05846351597734317</v>
+        <v>-0.05846351597734295</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1195248205818722</v>
@@ -2033,7 +2033,7 @@
         <v>-0.05609393115703747</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.09795731981153533</v>
+        <v>0.09795731981153515</v>
       </c>
     </row>
     <row r="44">
@@ -2044,31 +2044,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1856296694887564</v>
+        <v>-0.1720093285809063</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3554124555997996</v>
+        <v>-0.3457762213656456</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2176654591922396</v>
+        <v>-0.2035750333380227</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0288802350972809</v>
+        <v>-0.03787236251069349</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1099160456018191</v>
+        <v>-0.1148795944694122</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06778697721005587</v>
+        <v>0.06470808117602658</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0428312561148906</v>
+        <v>-0.03749247037328183</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.161887409895194</v>
+        <v>-0.1545901537525514</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.01055653063647724</v>
+        <v>-0.0109996746984203</v>
       </c>
     </row>
     <row r="45">
@@ -2079,31 +2079,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2432234832469278</v>
+        <v>0.244932514050682</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.00891388855387909</v>
+        <v>-0.01940905466776015</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1364875968491252</v>
+        <v>0.129524605316675</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.289141230626109</v>
+        <v>0.2882551883420227</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2234676229213926</v>
+        <v>0.207409542528297</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3511164339111287</v>
+        <v>0.3600167012944023</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2130312960518994</v>
+        <v>0.2307977714131993</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07208355570401567</v>
+        <v>0.07772256460107203</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2155571087388976</v>
+        <v>0.2180057930578917</v>
       </c>
     </row>
     <row r="46">
